--- a/book_parts/data_processing/data/output_noindex.xlsx
+++ b/book_parts/data_processing/data/output_noindex.xlsx
@@ -480,7 +480,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.551318536028333</v>
+        <v>-0.7591542253968855</v>
       </c>
       <c r="E2" s="3" t="n">
         <v>44576</v>
@@ -499,7 +499,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.5082831651357597</v>
+        <v>-1.685706492001141</v>
       </c>
       <c r="E3" s="3" t="n">
         <v>44577</v>
@@ -518,7 +518,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1.427344984016267</v>
+        <v>0.2664996361254149</v>
       </c>
       <c r="E4" s="3" t="n">
         <v>44578</v>
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>-0.8543678392738103</v>
+        <v>-1.480555385057235</v>
       </c>
       <c r="E5" s="3" t="n">
         <v>44579</v>
@@ -556,7 +556,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1.899461532278378</v>
+        <v>1.214167999754901</v>
       </c>
       <c r="E6" s="3" t="n">
         <v>44580</v>

--- a/book_parts/data_processing/data/output_noindex.xlsx
+++ b/book_parts/data_processing/data/output_noindex.xlsx
@@ -480,7 +480,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>-0.7591542253968855</v>
+        <v>-0.5109679203885669</v>
       </c>
       <c r="E2" s="3" t="n">
         <v>44576</v>
@@ -499,7 +499,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>-1.685706492001141</v>
+        <v>-1.546605696416426</v>
       </c>
       <c r="E3" s="3" t="n">
         <v>44577</v>
@@ -518,7 +518,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.2664996361254149</v>
+        <v>0.5359614257915656</v>
       </c>
       <c r="E4" s="3" t="n">
         <v>44578</v>
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>-1.480555385057235</v>
+        <v>0.6173360913434244</v>
       </c>
       <c r="E5" s="3" t="n">
         <v>44579</v>
@@ -556,7 +556,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1.214167999754901</v>
+        <v>-0.58604908792934</v>
       </c>
       <c r="E6" s="3" t="n">
         <v>44580</v>
